--- a/assets/i18n/zones.xlsx
+++ b/assets/i18n/zones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75422935-9F02-4A7B-B80B-F04DC92D98F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4CA6FD-36AB-4BAA-B555-B0658B683B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>clés</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Poubelle</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Classeur</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,6 +525,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/zones.xlsx
+++ b/assets/i18n/zones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4CA6FD-36AB-4BAA-B555-B0658B683B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D336D-5F86-46DA-9952-6E6EE0497430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Recycle bin</t>
   </si>
   <si>
-    <t>Zone à Accès Restreint</t>
-  </si>
-  <si>
     <t>Cantine</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>Classeur</t>
+  </si>
+  <si>
+    <t>Accès Restreint</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,15 +522,15 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
